--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create__Provider.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create__Provider.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27435" windowHeight="13230"/>
+    <workbookView windowWidth="27465" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1158,8 +1158,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1200,6 +1200,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1207,7 +1223,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1218,14 +1241,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1244,10 +1259,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1259,31 +1275,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1298,22 +1291,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1328,6 +1306,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1337,6 +1330,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1369,7 +1369,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,13 +1387,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,7 +1447,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,145 +1543,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1633,6 +1633,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1644,15 +1653,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1672,6 +1672,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1683,15 +1692,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1713,7 +1713,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1731,130 +1731,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2311,7 +2311,7 @@
   <sheetPr/>
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create__Provider.xlsx
+++ b/QA/testcases/LLS/Provider/L_Prov_Patient_App_Create__Provider.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374">
   <si>
     <t>Step No</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>LLS_SUB_RELATION</t>
+  </si>
+  <si>
+    <t>Child</t>
   </si>
   <si>
     <t>LLS_OP_PRESCRIPTION_NO</t>
@@ -1157,9 +1160,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1198,25 +1201,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1229,16 +1215,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1254,6 +1233,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1291,22 +1277,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1320,6 +1323,13 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1328,17 +1338,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1369,7 +1372,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,7 +1396,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1393,7 +1426,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,151 +1546,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1615,17 +1618,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1658,6 +1650,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1668,15 +1675,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1696,24 +1694,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1731,130 +1734,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2311,8 +2314,8 @@
   <sheetPr/>
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3688,7 +3691,7 @@
         <v>157</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
@@ -3705,7 +3708,7 @@
         <v>20</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
@@ -3723,7 +3726,7 @@
         <v>20</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
@@ -3741,14 +3744,14 @@
         <v>20</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H67" s="17"/>
     </row>
@@ -3763,7 +3766,7 @@
         <v>20</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
@@ -3781,7 +3784,7 @@
         <v>20</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
@@ -3799,14 +3802,14 @@
         <v>20</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H70" s="9"/>
     </row>
@@ -3863,14 +3866,14 @@
         <v>20</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H73" s="10"/>
     </row>
@@ -3905,12 +3908,12 @@
         <v>15</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H75" s="10"/>
     </row>
@@ -3941,11 +3944,11 @@
         <v>20</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G77" s="12" t="s">
         <v>35</v>
@@ -3979,13 +3982,13 @@
         <v>20</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>104</v>
@@ -4003,7 +4006,7 @@
         <v>15</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12" t="s">
@@ -4025,14 +4028,14 @@
         <v>15</v>
       </c>
       <c r="D81" s="19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H81" s="10"/>
     </row>
@@ -4047,14 +4050,14 @@
         <v>15</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H82" s="10"/>
     </row>
@@ -4089,7 +4092,7 @@
         <v>20</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
@@ -4123,7 +4126,7 @@
         <v>20</v>
       </c>
       <c r="D86" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="10" t="s">
@@ -4145,7 +4148,7 @@
         <v>20</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="10" t="s">
@@ -4167,14 +4170,14 @@
         <v>20</v>
       </c>
       <c r="D88" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H88" s="10"/>
     </row>
@@ -4189,14 +4192,14 @@
         <v>20</v>
       </c>
       <c r="D89" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E89" s="10"/>
       <c r="F89" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H89" s="10"/>
     </row>
@@ -4211,14 +4214,14 @@
         <v>20</v>
       </c>
       <c r="D90" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E90" s="10"/>
       <c r="F90" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H90" s="10"/>
     </row>
@@ -4233,11 +4236,11 @@
         <v>20</v>
       </c>
       <c r="D91" s="19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E91" s="10"/>
       <c r="F91" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>35</v>
@@ -4255,11 +4258,11 @@
         <v>20</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E92" s="10"/>
       <c r="F92" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G92" s="10" t="s">
         <v>35</v>
@@ -4277,11 +4280,11 @@
         <v>20</v>
       </c>
       <c r="D93" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E93" s="10"/>
       <c r="F93" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>35</v>
@@ -4299,7 +4302,7 @@
         <v>20</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>148</v>
@@ -4308,7 +4311,7 @@
         <v>93</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H94" s="10"/>
     </row>
@@ -4323,16 +4326,16 @@
         <v>20</v>
       </c>
       <c r="D95" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H95" s="10"/>
     </row>
@@ -4347,7 +4350,7 @@
         <v>15</v>
       </c>
       <c r="D96" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
@@ -4365,10 +4368,10 @@
         <v>20</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
@@ -4385,10 +4388,10 @@
         <v>20</v>
       </c>
       <c r="D98" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
@@ -4425,7 +4428,7 @@
         <v>15</v>
       </c>
       <c r="D100" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E100" s="10">
         <v>9789045678</v>
@@ -4445,7 +4448,7 @@
         <v>15</v>
       </c>
       <c r="D101" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E101" s="10">
         <v>21331</v>
@@ -4465,7 +4468,7 @@
         <v>15</v>
       </c>
       <c r="D102" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E102" s="10">
         <v>97989898982</v>
@@ -4485,10 +4488,10 @@
         <v>15</v>
       </c>
       <c r="D103" s="19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
@@ -4505,10 +4508,10 @@
         <v>15</v>
       </c>
       <c r="D104" s="19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
@@ -4525,10 +4528,10 @@
         <v>15</v>
       </c>
       <c r="D105" s="19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
@@ -4545,7 +4548,7 @@
         <v>15</v>
       </c>
       <c r="D106" s="19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
@@ -4579,7 +4582,7 @@
         <v>20</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
@@ -4639,16 +4642,16 @@
         <v>20</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E111" s="10" t="s">
         <v>138</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H111" s="9"/>
     </row>
@@ -4679,10 +4682,10 @@
       <c r="D113" s="10"/>
       <c r="E113" s="10"/>
       <c r="F113" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H113" s="9"/>
     </row>
@@ -4697,14 +4700,14 @@
         <v>20</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E114" s="12"/>
       <c r="F114" s="12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H114" s="17"/>
     </row>
@@ -4719,14 +4722,14 @@
         <v>20</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E115" s="10"/>
       <c r="F115" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H115" s="9"/>
     </row>
@@ -4741,7 +4744,7 @@
         <v>20</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
@@ -4759,7 +4762,7 @@
         <v>20</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
@@ -4777,16 +4780,16 @@
         <v>20</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E118" s="12" t="s">
         <v>138</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H118" s="17"/>
     </row>
@@ -4817,10 +4820,10 @@
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
       <c r="F120" s="12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H120" s="17"/>
     </row>
@@ -4835,16 +4838,16 @@
         <v>15</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G121" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H121" s="9"/>
     </row>
@@ -4859,16 +4862,16 @@
         <v>15</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H122" s="17"/>
     </row>
@@ -4925,14 +4928,14 @@
         <v>20</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E125" s="10"/>
       <c r="F125" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H125" s="9"/>
     </row>
@@ -4949,10 +4952,10 @@
         <v>2</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H126" s="17"/>
     </row>
@@ -4961,20 +4964,20 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C127" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E127" s="10"/>
       <c r="F127" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H127" s="9"/>
     </row>
@@ -5005,16 +5008,16 @@
         <v>15</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H129" s="9"/>
     </row>
@@ -5029,16 +5032,16 @@
         <v>20</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G130" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H130" s="17"/>
     </row>
@@ -5047,22 +5050,22 @@
         <v>130</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C131" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H131" s="9"/>
     </row>
@@ -5077,14 +5080,14 @@
         <v>15</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E132" s="12"/>
       <c r="F132" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G132" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H132" s="17"/>
     </row>
@@ -5115,14 +5118,14 @@
         <v>20</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E134" s="12"/>
       <c r="F134" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G134" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H134" s="17"/>
     </row>
@@ -5215,14 +5218,14 @@
         <v>20</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G139" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H139" s="12"/>
     </row>
@@ -5299,7 +5302,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5307,20 +5310,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5331,20 +5334,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5352,47 +5355,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -5402,12 +5405,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5417,55 +5420,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5475,152 +5478,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5630,209 +5633,209 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -5842,7 +5845,7 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
